--- a/electron-app/src/files/DB/Тест 1.xlsx
+++ b/electron-app/src/files/DB/Тест 1.xlsx
@@ -498,7 +498,7 @@
         <v>-;получена от отв-го офицера</v>
       </c>
       <c r="I3" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -559,7 +559,7 @@
         <v>М8О-111Бк-22</v>
       </c>
       <c r="F5" t="str">
-        <v>п п-к Иванов Иван Иванович</v>
+        <v>п п-к Петров</v>
       </c>
       <c r="G5" t="str">
         <v>КВ</v>
@@ -594,7 +594,7 @@
         <v>М8О-111Бк-22</v>
       </c>
       <c r="F6" t="str">
-        <v>п п-к Иванов Иван Иванович</v>
+        <v>п п-к Сидоров</v>
       </c>
       <c r="G6" t="str">
         <v>ЗРС БД</v>
